--- a/data/tickfat_data.xlsx
+++ b/data/tickfat_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgauthie/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/TickFat/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383D1B66-4DE0-F54C-97EC-52CE7D054512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9E7E7A-409B-4A4C-A197-78B98F4EC5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="3800" windowWidth="25600" windowHeight="15500" xr2:uid="{5AF45159-B988-A340-90C4-4D7DAC2F89C8}"/>
+    <workbookView xWindow="-82240" yWindow="3780" windowWidth="25600" windowHeight="15500" xr2:uid="{5AF45159-B988-A340-90C4-4D7DAC2F89C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>dead</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -571,13 +574,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572502F5-9FDD-9D49-A3E3-C8794B992323}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,8 +599,11 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -617,7 +623,7 @@
         <v>3.036</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -637,7 +643,7 @@
         <v>2.1749999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -657,7 +663,7 @@
         <v>2.3260000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -677,7 +683,7 @@
         <v>3.8159999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -697,7 +703,7 @@
         <v>2.4319999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -717,7 +723,7 @@
         <v>2.5329999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -737,7 +743,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -757,7 +763,7 @@
         <v>2.097</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -777,7 +783,7 @@
         <v>2.6019999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -797,7 +803,7 @@
         <v>3.3420000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -817,7 +823,7 @@
         <v>3.4710000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -837,7 +843,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -857,7 +863,7 @@
         <v>2.0190000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -877,7 +883,7 @@
         <v>3.4689999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1207,6 +1213,9 @@
       <c r="C32" t="s">
         <v>10</v>
       </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
       <c r="E32">
         <v>3</v>
       </c>
@@ -1224,6 +1233,9 @@
       <c r="C33" t="s">
         <v>10</v>
       </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
       <c r="E33">
         <v>2.9710000000000001</v>
       </c>
@@ -1241,6 +1253,9 @@
       <c r="C34" t="s">
         <v>11</v>
       </c>
+      <c r="D34">
+        <v>14</v>
+      </c>
       <c r="E34">
         <v>3.3279999999999998</v>
       </c>
@@ -1258,6 +1273,9 @@
       <c r="C35" t="s">
         <v>11</v>
       </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
       <c r="E35">
         <v>3.2090000000000001</v>
       </c>
@@ -1274,6 +1292,9 @@
       </c>
       <c r="C36" t="s">
         <v>11</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
       </c>
       <c r="E36">
         <v>2.8660000000000001</v>
